--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H2">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I2">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J2">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N2">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O2">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P2">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q2">
-        <v>0.07030285806223985</v>
+        <v>0.09430524964666667</v>
       </c>
       <c r="R2">
-        <v>0.07030285806223985</v>
+        <v>0.84874724682</v>
       </c>
       <c r="S2">
-        <v>0.0006406365659565269</v>
+        <v>0.0007493476673751803</v>
       </c>
       <c r="T2">
-        <v>0.0006406365659565269</v>
+        <v>0.001194779466997069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H3">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I3">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J3">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N3">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P3">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q3">
-        <v>0.6069281833797769</v>
+        <v>0.7687542700933334</v>
       </c>
       <c r="R3">
-        <v>0.6069281833797769</v>
+        <v>6.91878843084</v>
       </c>
       <c r="S3">
-        <v>0.005530648367644268</v>
+        <v>0.00610850637941671</v>
       </c>
       <c r="T3">
-        <v>0.005530648367644268</v>
+        <v>0.009739561906841304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H4">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I4">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J4">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N4">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O4">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P4">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q4">
-        <v>0.1342203103601004</v>
+        <v>0.2075034914333334</v>
       </c>
       <c r="R4">
-        <v>0.1342203103601004</v>
+        <v>1.8675314229</v>
       </c>
       <c r="S4">
-        <v>0.001223085960951819</v>
+        <v>0.001648818680405986</v>
       </c>
       <c r="T4">
-        <v>0.001223085960951819</v>
+        <v>0.002628919512154773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H5">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I5">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J5">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N5">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O5">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P5">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q5">
-        <v>0.1619734282073084</v>
+        <v>0.1977316843333334</v>
       </c>
       <c r="R5">
-        <v>0.1619734282073084</v>
+        <v>1.779585159</v>
       </c>
       <c r="S5">
-        <v>0.001475986946804792</v>
+        <v>0.001571172092502764</v>
       </c>
       <c r="T5">
-        <v>0.001475986946804792</v>
+        <v>0.002505117767052782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H6">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I6">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J6">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N6">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O6">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P6">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q6">
-        <v>0.3673668030099776</v>
+        <v>0.4475737999700001</v>
       </c>
       <c r="R6">
-        <v>0.3673668030099776</v>
+        <v>2.685442799820001</v>
       </c>
       <c r="S6">
-        <v>0.003347639251285963</v>
+        <v>0.003556412651918787</v>
       </c>
       <c r="T6">
-        <v>0.003347639251285963</v>
+        <v>0.003780291398931053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.57619955629736</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="H7">
-        <v>1.57619955629736</v>
+        <v>0.106753</v>
       </c>
       <c r="I7">
-        <v>0.9877820029073566</v>
+        <v>0.02061027878600664</v>
       </c>
       <c r="J7">
-        <v>0.9877820029073566</v>
+        <v>0.03000431993852589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N7">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O7">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P7">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q7">
-        <v>5.683738293622941</v>
+        <v>0.1425569005314445</v>
       </c>
       <c r="R7">
-        <v>5.683738293622941</v>
+        <v>1.283012104783</v>
       </c>
       <c r="S7">
-        <v>0.05179320844962817</v>
+        <v>0.00113275434063017</v>
       </c>
       <c r="T7">
-        <v>0.05179320844962817</v>
+        <v>0.001806093067690996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.57619955629736</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="H8">
-        <v>1.57619955629736</v>
+        <v>0.106753</v>
       </c>
       <c r="I8">
-        <v>0.9877820029073566</v>
+        <v>0.02061027878600664</v>
       </c>
       <c r="J8">
-        <v>0.9877820029073566</v>
+        <v>0.03000431993852589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N8">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P8">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q8">
-        <v>49.06800452267047</v>
+        <v>1.162090407749556</v>
       </c>
       <c r="R8">
-        <v>49.06800452267047</v>
+        <v>10.458813669746</v>
       </c>
       <c r="S8">
-        <v>0.4471334278887129</v>
+        <v>0.009233947628460379</v>
       </c>
       <c r="T8">
-        <v>0.4471334278887129</v>
+        <v>0.01472284695894973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.57619955629736</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="H9">
-        <v>1.57619955629736</v>
+        <v>0.106753</v>
       </c>
       <c r="I9">
-        <v>0.9877820029073566</v>
+        <v>0.02061027878600664</v>
       </c>
       <c r="J9">
-        <v>0.9877820029073566</v>
+        <v>0.03000431993852589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N9">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O9">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P9">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q9">
-        <v>10.85123903640275</v>
+        <v>0.3136734667372222</v>
       </c>
       <c r="R9">
-        <v>10.85123903640275</v>
+        <v>2.823061200635</v>
       </c>
       <c r="S9">
-        <v>0.09888218920630586</v>
+        <v>0.002492443225564716</v>
       </c>
       <c r="T9">
-        <v>0.09888218920630586</v>
+        <v>0.003974016492226826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.57619955629736</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="H10">
-        <v>1.57619955629736</v>
+        <v>0.106753</v>
       </c>
       <c r="I10">
-        <v>0.9877820029073566</v>
+        <v>0.02061027878600664</v>
       </c>
       <c r="J10">
-        <v>0.9877820029073566</v>
+        <v>0.03000431993852589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N10">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O10">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P10">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q10">
-        <v>13.09498079916232</v>
+        <v>0.2989018762055556</v>
       </c>
       <c r="R10">
-        <v>13.09498079916232</v>
+        <v>2.69011688585</v>
       </c>
       <c r="S10">
-        <v>0.1193283425691602</v>
+        <v>0.002375068456399711</v>
       </c>
       <c r="T10">
-        <v>0.1193283425691602</v>
+        <v>0.003786871098643241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.106753</v>
+      </c>
+      <c r="I11">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J11">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.0133305</v>
+      </c>
+      <c r="N11">
+        <v>38.026661</v>
+      </c>
+      <c r="O11">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P11">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q11">
+        <v>0.6765766902888335</v>
+      </c>
+      <c r="R11">
+        <v>4.059460141733</v>
+      </c>
+      <c r="S11">
+        <v>0.005376065134951661</v>
+      </c>
+      <c r="T11">
+        <v>0.005714492321015106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04573</v>
+      </c>
+      <c r="H12">
+        <v>0.13719</v>
+      </c>
+      <c r="I12">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J12">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.006170333333333</v>
+      </c>
+      <c r="N12">
+        <v>12.018511</v>
+      </c>
+      <c r="O12">
+        <v>0.05496065106112269</v>
+      </c>
+      <c r="P12">
+        <v>0.06019443438116229</v>
+      </c>
+      <c r="Q12">
+        <v>0.1832021693433333</v>
+      </c>
+      <c r="R12">
+        <v>1.64881952409</v>
+      </c>
+      <c r="S12">
+        <v>0.001455720850852464</v>
+      </c>
+      <c r="T12">
+        <v>0.002321039295912319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04573</v>
+      </c>
+      <c r="H13">
+        <v>0.13719</v>
+      </c>
+      <c r="I13">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J13">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N13">
+        <v>97.972082</v>
+      </c>
+      <c r="O13">
+        <v>0.4480263330901556</v>
+      </c>
+      <c r="P13">
+        <v>0.490690906813236</v>
+      </c>
+      <c r="Q13">
+        <v>1.493421103286667</v>
+      </c>
+      <c r="R13">
+        <v>13.44078992958</v>
+      </c>
+      <c r="S13">
+        <v>0.01186669484837409</v>
+      </c>
+      <c r="T13">
+        <v>0.01892056779948398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04573</v>
+      </c>
+      <c r="H14">
+        <v>0.13719</v>
+      </c>
+      <c r="I14">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J14">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.814931666666666</v>
+      </c>
+      <c r="N14">
+        <v>26.444795</v>
+      </c>
+      <c r="O14">
+        <v>0.1209320481029573</v>
+      </c>
+      <c r="P14">
+        <v>0.1324481441462082</v>
+      </c>
+      <c r="Q14">
+        <v>0.4031068251166667</v>
+      </c>
+      <c r="R14">
+        <v>3.62796142605</v>
+      </c>
+      <c r="S14">
+        <v>0.003203078940312904</v>
+      </c>
+      <c r="T14">
+        <v>0.005107072612185121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04573</v>
+      </c>
+      <c r="H15">
+        <v>0.13719</v>
+      </c>
+      <c r="I15">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J15">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.399816666666666</v>
+      </c>
+      <c r="N15">
+        <v>25.19945</v>
+      </c>
+      <c r="O15">
+        <v>0.1152370853912109</v>
+      </c>
+      <c r="P15">
+        <v>0.1262108625158624</v>
+      </c>
+      <c r="Q15">
+        <v>0.3841236161666666</v>
+      </c>
+      <c r="R15">
+        <v>3.4571125455</v>
+      </c>
+      <c r="S15">
+        <v>0.003052238733651291</v>
+      </c>
+      <c r="T15">
+        <v>0.004866569052137798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04573</v>
+      </c>
+      <c r="H16">
+        <v>0.13719</v>
+      </c>
+      <c r="I16">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J16">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.0133305</v>
+      </c>
+      <c r="N16">
+        <v>38.026661</v>
+      </c>
+      <c r="O16">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P16">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q16">
+        <v>0.8694796037650001</v>
+      </c>
+      <c r="R16">
+        <v>5.216877622590001</v>
+      </c>
+      <c r="S16">
+        <v>0.006908867908761517</v>
+      </c>
+      <c r="T16">
+        <v>0.007343786137345671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.621679</v>
+      </c>
+      <c r="H17">
+        <v>3.243358</v>
+      </c>
+      <c r="I17">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J17">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.006170333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.018511</v>
+      </c>
+      <c r="O17">
+        <v>0.05496065106112269</v>
+      </c>
+      <c r="P17">
+        <v>0.06019443438116229</v>
+      </c>
+      <c r="Q17">
+        <v>6.496722299989667</v>
+      </c>
+      <c r="R17">
+        <v>38.980333799938</v>
+      </c>
+      <c r="S17">
+        <v>0.05162282820226487</v>
+      </c>
+      <c r="T17">
+        <v>0.0548725225505619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="H11">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="I11">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="J11">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="N11">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="O11">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="P11">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="Q11">
-        <v>29.70031124801644</v>
-      </c>
-      <c r="R11">
-        <v>29.70031124801644</v>
-      </c>
-      <c r="S11">
-        <v>0.2706448347935494</v>
-      </c>
-      <c r="T11">
-        <v>0.2706448347935494</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.621679</v>
+      </c>
+      <c r="H18">
+        <v>3.243358</v>
+      </c>
+      <c r="I18">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J18">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N18">
+        <v>97.972082</v>
+      </c>
+      <c r="O18">
+        <v>0.4480263330901556</v>
+      </c>
+      <c r="P18">
+        <v>0.490690906813236</v>
+      </c>
+      <c r="Q18">
+        <v>52.95975598855934</v>
+      </c>
+      <c r="R18">
+        <v>317.758535931356</v>
+      </c>
+      <c r="S18">
+        <v>0.4208171842339044</v>
+      </c>
+      <c r="T18">
+        <v>0.4473079301479609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.621679</v>
+      </c>
+      <c r="H19">
+        <v>3.243358</v>
+      </c>
+      <c r="I19">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J19">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.814931666666666</v>
+      </c>
+      <c r="N19">
+        <v>26.444795</v>
+      </c>
+      <c r="O19">
+        <v>0.1209320481029573</v>
+      </c>
+      <c r="P19">
+        <v>0.1324481441462082</v>
+      </c>
+      <c r="Q19">
+        <v>14.29498957026833</v>
+      </c>
+      <c r="R19">
+        <v>85.76993742161</v>
+      </c>
+      <c r="S19">
+        <v>0.1135877072566737</v>
+      </c>
+      <c r="T19">
+        <v>0.1207381355296415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.621679</v>
+      </c>
+      <c r="H20">
+        <v>3.243358</v>
+      </c>
+      <c r="I20">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J20">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.399816666666666</v>
+      </c>
+      <c r="N20">
+        <v>25.19945</v>
+      </c>
+      <c r="O20">
+        <v>0.1152370853912109</v>
+      </c>
+      <c r="P20">
+        <v>0.1262108625158624</v>
+      </c>
+      <c r="Q20">
+        <v>13.62180629218333</v>
+      </c>
+      <c r="R20">
+        <v>81.7308377531</v>
+      </c>
+      <c r="S20">
+        <v>0.1082386061086572</v>
+      </c>
+      <c r="T20">
+        <v>0.1150523045980286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.621679</v>
+      </c>
+      <c r="H21">
+        <v>3.243358</v>
+      </c>
+      <c r="I21">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J21">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.0133305</v>
+      </c>
+      <c r="N21">
+        <v>38.026661</v>
+      </c>
+      <c r="O21">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P21">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q21">
+        <v>30.8335187919095</v>
+      </c>
+      <c r="R21">
+        <v>123.334075167638</v>
+      </c>
+      <c r="S21">
+        <v>0.2450025366589213</v>
+      </c>
+      <c r="T21">
+        <v>0.1736170822862394</v>
       </c>
     </row>
   </sheetData>
